--- a/data/sample_table.xlsx
+++ b/data/sample_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\carbonarc\database_tool\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\carbonarc\database_tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A079B4-6D8F-4495-B157-A9B0A1DB6DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1792912-02AC-4D6C-8FC2-26E8563F18C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1238" yWindow="6450" windowWidth="21112" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ \ hh:mm:ss.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ \ hh:mm:ss.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,7 +92,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,15 +376,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -418,7 +418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -435,7 +435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>

--- a/data/sample_table.xlsx
+++ b/data/sample_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\carbonarc\database_tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1792912-02AC-4D6C-8FC2-26E8563F18C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73574D5F-53A2-4DDA-9E4F-C4450DDB1E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
-  <si>
-    <t>action</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>created_ts</t>
   </si>
@@ -42,16 +39,22 @@
     <t>name</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
     <t>jeff</t>
   </si>
   <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>Stan Lee</t>
+    <t>n_id</t>
+  </si>
+  <si>
+    <t>John Snow</t>
+  </si>
+  <si>
+    <t>Robert Jones</t>
+  </si>
+  <si>
+    <t>Samwell Tarly</t>
+  </si>
+  <si>
+    <t>stage</t>
   </si>
 </sst>
 </file>
@@ -70,12 +73,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,9 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,77 +393,79 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2">
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <v>45001.009283564817</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3">
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>45001.009283564817</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4">
+        <v>39</v>
       </c>
       <c r="B4" s="1">
         <v>45001.009283564817</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
